--- a/Assets/Data/storyText.xlsx
+++ b/Assets/Data/storyText.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeu\Documents\unityGame\storyGame\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80A7ADBD-47B4-4A7C-94D6-D26DAF7F44AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7559AB3B-95A7-45CC-A5A2-21659EC7FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="564" windowWidth="22920" windowHeight="11796" xr2:uid="{530B9CA9-DD50-4A57-953F-FBB8C17E3AF4}"/>
+    <workbookView xWindow="0" yWindow="168" windowWidth="22236" windowHeight="11796" xr2:uid="{530B9CA9-DD50-4A57-953F-FBB8C17E3AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -46,11 +46,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>good</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>all/text/actor%fadeIn#0##2/actor%fadeIn#1##2/back%fade#3#4/actor%move#0#1#5/actor%move#1#6#5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/text/actor%move#0#9#5/actor%move#1#8#5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/back%cross#2#2/actor%move#0#6#0.5/actor%move#1#1#0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/actor%fadeIn#1##4/back%cross#3#4/actor%move#0#8#3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/text/back%cross#1#4/actor%move#1#2#2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/actor%fadeOut#1##4/back%fade#2#4/actor%move#0#1#5/actor%move#1#6#5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/text/actor%fadeIn#0##3/actor%move#0#5#5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/text/back%cross#1#4/actor%move#1#7#5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/actor%fadeOut#0##1/back%cross#0#2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -418,7 +446,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -436,7 +464,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -447,90 +475,90 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/storyText.xlsx
+++ b/Assets/Data/storyText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeu\Documents\unityGame\storyGame\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7559AB3B-95A7-45CC-A5A2-21659EC7FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49849ED6-F471-4C0E-BCFA-67EBF30C5C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="168" windowWidth="22236" windowHeight="11796" xr2:uid="{530B9CA9-DD50-4A57-953F-FBB8C17E3AF4}"/>
   </bookViews>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>all/text/actor%fadeIn#0##2/actor%fadeIn#1##2/back%fade#3#4/actor%move#0#1#5/actor%move#1#6#5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>all/text/actor%move#0#9#5/actor%move#1#8#5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>all/back%cross#2#2/actor%move#0#6#0.5/actor%move#1#1#0.5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -62,23 +54,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>all/text/back%cross#1#4/actor%move#1#2#2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>all/actor%fadeOut#1##4/back%fade#2#4/actor%move#0#1#5/actor%move#1#6#5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>all/text/actor%fadeIn#0##3/actor%move#0#5#5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>all/text/back%cross#1#4/actor%move#1#7#5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>all/actor%fadeOut#0##1/back%cross#0#2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/text%2キャラフェードイン、移動、背景フェード/actor%fadeIn#0##2/actor%fadeIn#1##2/back%fade#3#4/actor%move#0#1#5/actor%move#1#6#5</t>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/text%テストテストテストテスト/back%cross#1#4/actor%move#1#7#5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/text%個別に移動可能です/actor%fadeIn#0##3/actor%move#0#5#5</t>
+    <rPh sb="9" eb="11">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/text%クロスフェード/back%cross#1#4/actor%move#1#2#2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>all/text%全機能の遷移時間が調整できます/actor%move#0#9#5/actor%move#1#8#5</t>
+    <rPh sb="9" eb="12">
+      <t>ゼンキノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -446,7 +473,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -470,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -481,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -492,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -514,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -525,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -536,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -547,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -558,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
